--- a/Source/Pivot Excel/Cau10_TimeHierachy.xlsx
+++ b/Source/Pivot Excel/Cau10_TimeHierachy.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIET's Folder\CODE\UIT\Third_year\Semester 2\IS217_Data_warehouse_and_OLAP\SASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - IT software\Máy tính\UIT\nam_BA\HK2\IS217-KhoDLvaOLAP\PROJECT\Project-OLAP\IS217---Datawarehouse-and-OLAP\Source\Pivot Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477F731-A0A0-4451-840A-B0C9AE579AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059C3BF-D415-4691-840E-7B0AF82A8A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp5FCB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="96" r:id="rId2"/>
+    <pivotCache cacheId="10" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,7 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,7 +1094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="96" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="DrillDownHỉerarchy" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="DrillDownHỉerarchy" fieldListSortAscending="1">
   <location ref="A1:B254" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2515,7 +2514,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,13 +2539,12 @@
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>432</v>
       </c>
     </row>
@@ -2554,7 +2552,7 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>412</v>
       </c>
     </row>
@@ -2562,13 +2560,12 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>430</v>
       </c>
     </row>
@@ -2576,7 +2573,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>28</v>
       </c>
     </row>
@@ -2584,7 +2581,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>410</v>
       </c>
     </row>
@@ -2592,7 +2589,7 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>408</v>
       </c>
     </row>
@@ -2600,7 +2597,7 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>362</v>
       </c>
     </row>
@@ -2608,7 +2605,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>436</v>
       </c>
     </row>
@@ -2616,7 +2613,7 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>354</v>
       </c>
     </row>
@@ -2624,7 +2621,7 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>84</v>
       </c>
     </row>
@@ -2632,7 +2629,7 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
@@ -2640,13 +2637,12 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>438</v>
       </c>
     </row>
@@ -2654,7 +2650,7 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>358</v>
       </c>
     </row>
@@ -2662,7 +2658,7 @@
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>452</v>
       </c>
     </row>
@@ -2670,7 +2666,7 @@
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>342</v>
       </c>
     </row>
@@ -2678,7 +2674,7 @@
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>72</v>
       </c>
     </row>
@@ -2686,7 +2682,7 @@
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>12</v>
       </c>
     </row>
@@ -2694,13 +2690,12 @@
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>418</v>
       </c>
     </row>
@@ -2708,7 +2703,7 @@
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>426</v>
       </c>
     </row>
@@ -2716,7 +2711,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>372</v>
       </c>
     </row>
@@ -2724,7 +2719,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>500</v>
       </c>
     </row>
@@ -2732,7 +2727,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>490</v>
       </c>
     </row>
@@ -2740,7 +2735,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>196</v>
       </c>
     </row>
@@ -2748,7 +2743,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>24</v>
       </c>
     </row>
@@ -2756,13 +2751,12 @@
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>408</v>
       </c>
     </row>
@@ -2770,7 +2764,7 @@
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>26</v>
       </c>
     </row>
@@ -2778,7 +2772,7 @@
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>418</v>
       </c>
     </row>
@@ -2786,7 +2780,7 @@
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>434</v>
       </c>
     </row>
@@ -2794,7 +2788,7 @@
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>376</v>
       </c>
     </row>
@@ -2802,7 +2796,7 @@
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>454</v>
       </c>
     </row>
@@ -2810,7 +2804,7 @@
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>344</v>
       </c>
     </row>
@@ -2818,7 +2812,7 @@
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>84</v>
       </c>
     </row>
@@ -2826,7 +2820,7 @@
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>18</v>
       </c>
     </row>
@@ -2834,13 +2828,12 @@
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>428</v>
       </c>
     </row>
@@ -2848,7 +2841,7 @@
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>34</v>
       </c>
     </row>
@@ -2856,7 +2849,7 @@
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>416</v>
       </c>
     </row>
@@ -2864,7 +2857,7 @@
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>414</v>
       </c>
     </row>
@@ -2872,7 +2865,7 @@
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>356</v>
       </c>
     </row>
@@ -2880,7 +2873,7 @@
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>442</v>
       </c>
     </row>
@@ -2888,7 +2881,7 @@
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>324</v>
       </c>
     </row>
@@ -2896,7 +2889,7 @@
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>78</v>
       </c>
     </row>
@@ -2904,7 +2897,7 @@
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>14</v>
       </c>
     </row>
@@ -2912,13 +2905,12 @@
       <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>430</v>
       </c>
     </row>
@@ -2926,7 +2918,7 @@
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>348</v>
       </c>
     </row>
@@ -2934,7 +2926,7 @@
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>470</v>
       </c>
     </row>
@@ -2942,7 +2934,7 @@
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>322</v>
       </c>
     </row>
@@ -2950,7 +2942,7 @@
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>76</v>
       </c>
     </row>
@@ -2958,7 +2950,7 @@
       <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>10</v>
       </c>
     </row>
@@ -2966,13 +2958,12 @@
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>52</v>
       </c>
     </row>
@@ -2980,7 +2971,7 @@
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>416</v>
       </c>
     </row>
@@ -2988,7 +2979,7 @@
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>432</v>
       </c>
     </row>
@@ -2996,13 +2987,12 @@
       <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>454</v>
       </c>
     </row>
@@ -3010,7 +3000,7 @@
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>420</v>
       </c>
     </row>
@@ -3018,7 +3008,7 @@
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>432</v>
       </c>
     </row>
@@ -3026,7 +3016,7 @@
       <c r="A65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>366</v>
       </c>
     </row>
@@ -3034,7 +3024,7 @@
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>448</v>
       </c>
     </row>
@@ -3042,7 +3032,7 @@
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>284</v>
       </c>
     </row>
@@ -3050,7 +3040,7 @@
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>78</v>
       </c>
     </row>
@@ -3058,7 +3048,7 @@
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>12</v>
       </c>
     </row>
@@ -3066,13 +3056,12 @@
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>464</v>
       </c>
     </row>
@@ -3080,7 +3069,7 @@
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>432</v>
       </c>
     </row>
@@ -3088,7 +3077,7 @@
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>436</v>
       </c>
     </row>
@@ -3096,7 +3085,7 @@
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>350</v>
       </c>
     </row>
@@ -3104,7 +3093,7 @@
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>464</v>
       </c>
     </row>
@@ -3112,7 +3101,7 @@
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>382</v>
       </c>
     </row>
@@ -3120,7 +3109,7 @@
       <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>94</v>
       </c>
     </row>
@@ -3128,7 +3117,7 @@
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>22</v>
       </c>
     </row>
@@ -3136,13 +3125,12 @@
       <c r="A79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>454</v>
       </c>
     </row>
@@ -3150,7 +3138,7 @@
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>4</v>
       </c>
     </row>
@@ -3158,7 +3146,7 @@
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>442</v>
       </c>
     </row>
@@ -3166,7 +3154,7 @@
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>466</v>
       </c>
     </row>
@@ -3174,7 +3162,7 @@
       <c r="A84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>362</v>
       </c>
     </row>
@@ -3182,7 +3170,7 @@
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>472</v>
       </c>
     </row>
@@ -3190,7 +3178,7 @@
       <c r="A86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>364</v>
       </c>
     </row>
@@ -3198,7 +3186,7 @@
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>100</v>
       </c>
     </row>
@@ -3206,7 +3194,7 @@
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>18</v>
       </c>
     </row>
@@ -3214,13 +3202,12 @@
       <c r="A89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>456</v>
       </c>
     </row>
@@ -3228,7 +3215,7 @@
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>22</v>
       </c>
     </row>
@@ -3236,7 +3223,7 @@
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>446</v>
       </c>
     </row>
@@ -3244,7 +3231,7 @@
       <c r="A93" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>444</v>
       </c>
     </row>
@@ -3252,7 +3239,7 @@
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>358</v>
       </c>
     </row>
@@ -3260,7 +3247,7 @@
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>446</v>
       </c>
     </row>
@@ -3268,7 +3255,7 @@
       <c r="A96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>354</v>
       </c>
     </row>
@@ -3276,7 +3263,7 @@
       <c r="A97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>82</v>
       </c>
     </row>
@@ -3284,7 +3271,7 @@
       <c r="A98" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>10</v>
       </c>
     </row>
@@ -3292,13 +3279,12 @@
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>444</v>
       </c>
     </row>
@@ -3306,7 +3292,7 @@
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>50</v>
       </c>
     </row>
@@ -3314,7 +3300,7 @@
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>452</v>
       </c>
     </row>
@@ -3322,7 +3308,7 @@
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>442</v>
       </c>
     </row>
@@ -3330,7 +3316,7 @@
       <c r="A104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>382</v>
       </c>
     </row>
@@ -3338,7 +3324,7 @@
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>470</v>
       </c>
     </row>
@@ -3346,7 +3332,7 @@
       <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>330</v>
       </c>
     </row>
@@ -3354,7 +3340,7 @@
       <c r="A107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>82</v>
       </c>
     </row>
@@ -3362,7 +3348,7 @@
       <c r="A108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>12</v>
       </c>
     </row>
@@ -3370,13 +3356,12 @@
       <c r="A109" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>458</v>
       </c>
     </row>
@@ -3384,7 +3369,7 @@
       <c r="A111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>76</v>
       </c>
     </row>
@@ -3392,7 +3377,7 @@
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>428</v>
       </c>
     </row>
@@ -3400,7 +3385,7 @@
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>442</v>
       </c>
     </row>
@@ -3408,7 +3393,7 @@
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>362</v>
       </c>
     </row>
@@ -3416,7 +3401,7 @@
       <c r="A115" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>460</v>
       </c>
     </row>
@@ -3424,7 +3409,7 @@
       <c r="A116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>320</v>
       </c>
     </row>
@@ -3432,7 +3417,7 @@
       <c r="A117" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>76</v>
       </c>
     </row>
@@ -3440,7 +3425,7 @@
       <c r="A118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>10</v>
       </c>
     </row>
@@ -3448,13 +3433,12 @@
       <c r="A119" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>460</v>
       </c>
     </row>
@@ -3462,7 +3446,7 @@
       <c r="A121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>86</v>
       </c>
     </row>
@@ -3470,7 +3454,7 @@
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>432</v>
       </c>
     </row>
@@ -3478,7 +3462,7 @@
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>446</v>
       </c>
     </row>
@@ -3486,7 +3470,7 @@
       <c r="A124" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>362</v>
       </c>
     </row>
@@ -3494,7 +3478,7 @@
       <c r="A125" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125">
         <v>470</v>
       </c>
     </row>
@@ -3502,7 +3486,7 @@
       <c r="A126" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>310</v>
       </c>
     </row>
@@ -3510,7 +3494,7 @@
       <c r="A127" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127">
         <v>62</v>
       </c>
     </row>
@@ -3518,7 +3502,7 @@
       <c r="A128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>14</v>
       </c>
     </row>
@@ -3526,13 +3510,12 @@
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>460</v>
       </c>
     </row>
@@ -3540,7 +3523,7 @@
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>112</v>
       </c>
     </row>
@@ -3548,7 +3531,7 @@
       <c r="A132" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>358</v>
       </c>
     </row>
@@ -3556,7 +3539,7 @@
       <c r="A133" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>456</v>
       </c>
     </row>
@@ -3564,7 +3547,7 @@
       <c r="A134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>308</v>
       </c>
     </row>
@@ -3572,7 +3555,7 @@
       <c r="A135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>66</v>
       </c>
     </row>
@@ -3580,7 +3563,7 @@
       <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>10</v>
       </c>
     </row>
@@ -3588,13 +3571,12 @@
       <c r="A137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>516</v>
       </c>
     </row>
@@ -3602,7 +3584,7 @@
       <c r="A139" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>24</v>
       </c>
     </row>
@@ -3610,7 +3592,7 @@
       <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>440</v>
       </c>
     </row>
@@ -3618,7 +3600,7 @@
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141">
         <v>448</v>
       </c>
     </row>
@@ -3626,7 +3608,7 @@
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142">
         <v>418</v>
       </c>
     </row>
@@ -3634,7 +3616,7 @@
       <c r="A143" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143">
         <v>506</v>
       </c>
     </row>
@@ -3642,7 +3624,7 @@
       <c r="A144" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144">
         <v>450</v>
       </c>
     </row>
@@ -3650,7 +3632,7 @@
       <c r="A145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145">
         <v>120</v>
       </c>
     </row>
@@ -3658,7 +3640,7 @@
       <c r="A146" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146">
         <v>26</v>
       </c>
     </row>
@@ -3666,13 +3648,12 @@
       <c r="A147" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>452</v>
       </c>
     </row>
@@ -3680,7 +3661,7 @@
       <c r="A149" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149">
         <v>38</v>
       </c>
     </row>
@@ -3688,7 +3669,7 @@
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150">
         <v>456</v>
       </c>
     </row>
@@ -3696,7 +3677,7 @@
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151">
         <v>438</v>
       </c>
     </row>
@@ -3704,7 +3685,7 @@
       <c r="A152" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152">
         <v>362</v>
       </c>
     </row>
@@ -3712,7 +3693,7 @@
       <c r="A153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153">
         <v>472</v>
       </c>
     </row>
@@ -3720,7 +3701,7 @@
       <c r="A154" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154">
         <v>330</v>
       </c>
     </row>
@@ -3728,7 +3709,7 @@
       <c r="A155" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155">
         <v>82</v>
       </c>
     </row>
@@ -3736,7 +3717,7 @@
       <c r="A156" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156">
         <v>18</v>
       </c>
     </row>
@@ -3744,13 +3725,12 @@
       <c r="A157" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="4"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158">
         <v>456</v>
       </c>
     </row>
@@ -3758,7 +3738,7 @@
       <c r="A159" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159">
         <v>52</v>
       </c>
     </row>
@@ -3766,7 +3746,7 @@
       <c r="A160" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160">
         <v>444</v>
       </c>
     </row>
@@ -3774,7 +3754,7 @@
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161">
         <v>466</v>
       </c>
     </row>
@@ -3782,7 +3762,7 @@
       <c r="A162" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162">
         <v>354</v>
       </c>
     </row>
@@ -3790,7 +3770,7 @@
       <c r="A163" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163">
         <v>474</v>
       </c>
     </row>
@@ -3798,7 +3778,7 @@
       <c r="A164" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164">
         <v>322</v>
       </c>
     </row>
@@ -3806,7 +3786,7 @@
       <c r="A165" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165">
         <v>90</v>
       </c>
     </row>
@@ -3814,7 +3794,7 @@
       <c r="A166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166">
         <v>10</v>
       </c>
     </row>
@@ -3822,13 +3802,12 @@
       <c r="A167" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168">
         <v>464</v>
       </c>
     </row>
@@ -3836,7 +3815,7 @@
       <c r="A169" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169">
         <v>76</v>
       </c>
     </row>
@@ -3844,7 +3823,7 @@
       <c r="A170" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170">
         <v>446</v>
       </c>
     </row>
@@ -3852,7 +3831,7 @@
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171">
         <v>456</v>
       </c>
     </row>
@@ -3860,7 +3839,7 @@
       <c r="A172" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172">
         <v>322</v>
       </c>
     </row>
@@ -3868,7 +3847,7 @@
       <c r="A173" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173">
         <v>472</v>
       </c>
     </row>
@@ -3876,7 +3855,7 @@
       <c r="A174" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174">
         <v>318</v>
       </c>
     </row>
@@ -3884,7 +3863,7 @@
       <c r="A175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175">
         <v>72</v>
       </c>
     </row>
@@ -3892,7 +3871,7 @@
       <c r="A176" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176">
         <v>12</v>
       </c>
     </row>
@@ -3900,13 +3879,12 @@
       <c r="A177" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178">
         <v>460</v>
       </c>
     </row>
@@ -3914,7 +3892,7 @@
       <c r="A179" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179">
         <v>90</v>
       </c>
     </row>
@@ -3922,7 +3900,7 @@
       <c r="A180" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180">
         <v>458</v>
       </c>
     </row>
@@ -3930,7 +3908,7 @@
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181">
         <v>464</v>
       </c>
     </row>
@@ -3938,7 +3916,7 @@
       <c r="A182" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182">
         <v>342</v>
       </c>
     </row>
@@ -3946,7 +3924,7 @@
       <c r="A183" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183">
         <v>474</v>
       </c>
     </row>
@@ -3954,7 +3932,7 @@
       <c r="A184" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184">
         <v>292</v>
       </c>
     </row>
@@ -3962,7 +3940,7 @@
       <c r="A185" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185">
         <v>72</v>
       </c>
     </row>
@@ -3970,7 +3948,7 @@
       <c r="A186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186">
         <v>14</v>
       </c>
     </row>
@@ -3978,13 +3956,12 @@
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B187" s="4"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188">
         <v>446</v>
       </c>
     </row>
@@ -3992,7 +3969,7 @@
       <c r="A189" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189">
         <v>208</v>
       </c>
     </row>
@@ -4000,7 +3977,7 @@
       <c r="A190" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190">
         <v>426</v>
       </c>
     </row>
@@ -4008,7 +3985,7 @@
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191">
         <v>454</v>
       </c>
     </row>
@@ -4016,7 +3993,7 @@
       <c r="A192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192">
         <v>330</v>
       </c>
     </row>
@@ -4024,7 +4001,7 @@
       <c r="A193" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193">
         <v>482</v>
       </c>
     </row>
@@ -4032,7 +4009,7 @@
       <c r="A194" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194">
         <v>280</v>
       </c>
     </row>
@@ -4040,7 +4017,7 @@
       <c r="A195" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195">
         <v>58</v>
       </c>
     </row>
@@ -4048,7 +4025,7 @@
       <c r="A196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196">
         <v>10</v>
       </c>
     </row>
@@ -4056,13 +4033,12 @@
       <c r="A197" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198">
         <v>432</v>
       </c>
     </row>
@@ -4070,7 +4046,7 @@
       <c r="A199" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199">
         <v>220</v>
       </c>
     </row>
@@ -4078,7 +4054,7 @@
       <c r="A200" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200">
         <v>438</v>
       </c>
     </row>
@@ -4086,7 +4062,7 @@
       <c r="A201" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201">
         <v>438</v>
       </c>
     </row>
@@ -4094,7 +4070,7 @@
       <c r="A202" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202">
         <v>320</v>
       </c>
     </row>
@@ -4102,7 +4078,7 @@
       <c r="A203" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203">
         <v>444</v>
       </c>
     </row>
@@ -4110,7 +4086,7 @@
       <c r="A204" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204">
         <v>272</v>
       </c>
     </row>
@@ -4118,7 +4094,7 @@
       <c r="A205" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205">
         <v>62</v>
       </c>
     </row>
@@ -4126,7 +4102,7 @@
       <c r="A206" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206">
         <v>6</v>
       </c>
     </row>
@@ -4134,13 +4110,12 @@
       <c r="A207" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208">
         <v>442</v>
       </c>
     </row>
@@ -4148,7 +4123,7 @@
       <c r="A209" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209">
         <v>136</v>
       </c>
     </row>
@@ -4156,7 +4131,7 @@
       <c r="A210" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210">
         <v>430</v>
       </c>
     </row>
@@ -4164,7 +4139,7 @@
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211">
         <v>440</v>
       </c>
     </row>
@@ -4172,7 +4147,7 @@
       <c r="A212" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212">
         <v>316</v>
       </c>
     </row>
@@ -4180,7 +4155,7 @@
       <c r="A213" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213">
         <v>448</v>
       </c>
     </row>
@@ -4188,7 +4163,7 @@
       <c r="A214" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214">
         <v>254</v>
       </c>
     </row>
@@ -4196,7 +4171,7 @@
       <c r="A215" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215">
         <v>58</v>
       </c>
     </row>
@@ -4204,7 +4179,7 @@
       <c r="A216" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216">
         <v>10</v>
       </c>
     </row>
@@ -4212,13 +4187,12 @@
       <c r="A217" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218">
         <v>444</v>
       </c>
     </row>
@@ -4226,7 +4200,7 @@
       <c r="A219" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219">
         <v>10</v>
       </c>
     </row>
@@ -4234,7 +4208,7 @@
       <c r="A220" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220">
         <v>134</v>
       </c>
     </row>
@@ -4242,7 +4216,7 @@
       <c r="A221" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221">
         <v>336</v>
       </c>
     </row>
@@ -4250,7 +4224,7 @@
       <c r="A222" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222">
         <v>156</v>
       </c>
     </row>
@@ -4258,7 +4232,7 @@
       <c r="A223" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223">
         <v>16</v>
       </c>
     </row>
@@ -4266,7 +4240,7 @@
       <c r="A224" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224">
         <v>246</v>
       </c>
     </row>
@@ -4274,7 +4248,7 @@
       <c r="A225" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225">
         <v>72</v>
       </c>
     </row>
@@ -4282,13 +4256,12 @@
       <c r="A226" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227">
         <v>444</v>
       </c>
     </row>
@@ -4296,7 +4269,7 @@
       <c r="A228" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228">
         <v>186</v>
       </c>
     </row>
@@ -4304,7 +4277,7 @@
       <c r="A229" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229">
         <v>450</v>
       </c>
     </row>
@@ -4312,7 +4285,7 @@
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230">
         <v>418</v>
       </c>
     </row>
@@ -4320,7 +4293,7 @@
       <c r="A231" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231">
         <v>424</v>
       </c>
     </row>
@@ -4328,7 +4301,7 @@
       <c r="A232" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232">
         <v>408</v>
       </c>
     </row>
@@ -4336,7 +4309,7 @@
       <c r="A233" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233">
         <v>480</v>
       </c>
     </row>
@@ -4344,7 +4317,7 @@
       <c r="A234" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234">
         <v>346</v>
       </c>
     </row>
@@ -4352,7 +4325,7 @@
       <c r="A235" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235">
         <v>90</v>
       </c>
     </row>
@@ -4360,7 +4333,7 @@
       <c r="A236" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236">
         <v>16</v>
       </c>
     </row>
@@ -4368,13 +4341,12 @@
       <c r="A237" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238">
         <v>462</v>
       </c>
     </row>
@@ -4382,7 +4354,7 @@
       <c r="A239" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239">
         <v>204</v>
       </c>
     </row>
@@ -4390,7 +4362,7 @@
       <c r="A240" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240">
         <v>444</v>
       </c>
     </row>
@@ -4398,7 +4370,7 @@
       <c r="A241" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241">
         <v>444</v>
       </c>
     </row>
@@ -4406,7 +4378,7 @@
       <c r="A242" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242">
         <v>326</v>
       </c>
     </row>
@@ -4414,7 +4386,7 @@
       <c r="A243" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243">
         <v>458</v>
       </c>
     </row>
@@ -4422,7 +4394,7 @@
       <c r="A244" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244">
         <v>258</v>
       </c>
     </row>
@@ -4430,7 +4402,7 @@
       <c r="A245" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245">
         <v>76</v>
       </c>
     </row>
@@ -4438,7 +4410,7 @@
       <c r="A246" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246">
         <v>12</v>
       </c>
     </row>
@@ -4446,13 +4418,12 @@
       <c r="A247" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248">
         <v>444</v>
       </c>
     </row>
@@ -4460,7 +4431,7 @@
       <c r="A249" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249">
         <v>326</v>
       </c>
     </row>
@@ -4468,7 +4439,7 @@
       <c r="A250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250">
         <v>458</v>
       </c>
     </row>
@@ -4476,7 +4447,7 @@
       <c r="A251" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251">
         <v>242</v>
       </c>
     </row>
@@ -4484,7 +4455,7 @@
       <c r="A252" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252">
         <v>68</v>
       </c>
     </row>
@@ -4492,7 +4463,7 @@
       <c r="A253" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253">
         <v>10</v>
       </c>
     </row>
@@ -4500,7 +4471,7 @@
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254">
         <v>65574</v>
       </c>
     </row>
